--- a/src/public/xlsx/informe2.xlsx
+++ b/src/public/xlsx/informe2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="77">
   <si>
     <t>No.</t>
   </si>
@@ -80,6 +80,171 @@
   </si>
   <si>
     <t>Referenciado en Scopus SI/NO</t>
+  </si>
+  <si>
+    <t>03/09/2022</t>
+  </si>
+  <si>
+    <t>Ciencias Exactas y Naturales</t>
+  </si>
+  <si>
+    <t>Matemática Aplicada</t>
+  </si>
+  <si>
+    <t>1085274169</t>
+  </si>
+  <si>
+    <t>José Manuel Afanador</t>
+  </si>
+  <si>
+    <t>Artículo de Revista</t>
+  </si>
+  <si>
+    <t>Testing Publication 4</t>
+  </si>
+  <si>
+    <t>Magazine 34</t>
+  </si>
+  <si>
+    <t>1692-0279</t>
+  </si>
+  <si>
+    <t>A2</t>
+  </si>
+  <si>
+    <t>13/09/2022</t>
+  </si>
+  <si>
+    <t>Salud</t>
+  </si>
+  <si>
+    <t>Medicina</t>
+  </si>
+  <si>
+    <t>5541541</t>
+  </si>
+  <si>
+    <t>Freddy Leonardo Cuenca</t>
+  </si>
+  <si>
+    <t>Testing Publication Test</t>
+  </si>
+  <si>
+    <t>Magazine London</t>
+  </si>
+  <si>
+    <t>2011-0731</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>13/06/2022</t>
+  </si>
+  <si>
+    <t>Prueba 2 Testing</t>
+  </si>
+  <si>
+    <t>Magazine 23</t>
+  </si>
+  <si>
+    <t>2323-0118</t>
+  </si>
+  <si>
+    <t>Producción de vídeos, cinematográficas o fonográficas</t>
+  </si>
+  <si>
+    <t>Testing Publication Videos</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>Educación</t>
+  </si>
+  <si>
+    <t>Licenciatura en Educación Artística</t>
+  </si>
+  <si>
+    <t>574584558</t>
+  </si>
+  <si>
+    <t>Lady M Cuenca</t>
+  </si>
+  <si>
+    <t>Obras artísticas</t>
+  </si>
+  <si>
+    <t>Publicación de Prueba Obras Artisticas</t>
+  </si>
+  <si>
+    <t>14/09/2022</t>
+  </si>
+  <si>
+    <t>Ponencia</t>
+  </si>
+  <si>
+    <t>Testing Publication Ponencia</t>
+  </si>
+  <si>
+    <t>13/11/2022</t>
+  </si>
+  <si>
+    <t>Libro</t>
+  </si>
+  <si>
+    <t>Testing Publication Libro Derivado de Investigación</t>
+  </si>
+  <si>
+    <t>Editorial Santillana</t>
+  </si>
+  <si>
+    <t>8520-df67</t>
+  </si>
+  <si>
+    <t>Premio</t>
+  </si>
+  <si>
+    <t>Testing Publication Premio</t>
+  </si>
+  <si>
+    <t>Capítulo de Libro</t>
+  </si>
+  <si>
+    <t>Testing Publication Capitulo Libro</t>
+  </si>
+  <si>
+    <t>Editorial Castilla</t>
+  </si>
+  <si>
+    <t>8520-dfg8</t>
+  </si>
+  <si>
+    <t>Producción técnica</t>
+  </si>
+  <si>
+    <t>Testing Publication Produccion Tecnica</t>
+  </si>
+  <si>
+    <t>Testing Publication Articulo ISSN</t>
+  </si>
+  <si>
+    <t>SCIENTIA ET TECHNICA</t>
+  </si>
+  <si>
+    <t>2011-1711</t>
+  </si>
+  <si>
+    <t>15/11/2022</t>
+  </si>
+  <si>
+    <t>Testing Publication Artículo</t>
+  </si>
+  <si>
+    <t>REVISTA LATINOAMERICANA DE PSICOLOGÍA</t>
+  </si>
+  <si>
+    <t>0120-0534</t>
   </si>
 </sst>
 </file>
@@ -496,7 +661,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V1"/>
+  <dimension ref="A1:V13"/>
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="100" zoomScaleNormal="100">
       <selection activeCell="V9" sqref="V9"/>
@@ -511,7 +676,14 @@
     <col min="5" max="5" width="23" customWidth="1"/>
     <col min="6" max="6" width="23.140625" customWidth="1"/>
     <col min="7" max="7" width="22.7109375" customWidth="1"/>
-    <col min="8" max="8" width="23" customWidth="1"/>
+    <col min="8" max="8" width="33.42578125" customWidth="1"/>
+    <col min="9" max="9" width="23" customWidth="1"/>
+    <col min="10" max="10" width="29.140625" customWidth="1"/>
+    <col min="12" max="12" width="22.85546875" customWidth="1"/>
+    <col min="13" max="13" width="22.7109375" customWidth="1"/>
+    <col min="15" max="15" width="28.5703125" customWidth="1"/>
+    <col min="17" max="17" width="23" customWidth="1"/>
+    <col min="19" max="19" width="22.7109375" customWidth="1"/>
     <col min="23" max="16384" width="11.42578125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -583,6 +755,468 @@
         <v>21</v>
       </c>
     </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2">
+        <v>2022</v>
+      </c>
+      <c r="D2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H2" t="s">
+        <v>26</v>
+      </c>
+      <c r="I2" t="s">
+        <v>27</v>
+      </c>
+      <c r="J2" t="s">
+        <v>28</v>
+      </c>
+      <c r="L2" t="s">
+        <v>29</v>
+      </c>
+      <c r="N2" t="s">
+        <v>30</v>
+      </c>
+      <c r="P2">
+        <v>2</v>
+      </c>
+      <c r="R2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C3">
+        <v>2022</v>
+      </c>
+      <c r="D3" t="s">
+        <v>33</v>
+      </c>
+      <c r="E3" t="s">
+        <v>34</v>
+      </c>
+      <c r="G3" t="s">
+        <v>35</v>
+      </c>
+      <c r="H3" t="s">
+        <v>36</v>
+      </c>
+      <c r="I3" t="s">
+        <v>27</v>
+      </c>
+      <c r="J3" t="s">
+        <v>37</v>
+      </c>
+      <c r="L3" t="s">
+        <v>38</v>
+      </c>
+      <c r="N3" t="s">
+        <v>39</v>
+      </c>
+      <c r="P3">
+        <v>3</v>
+      </c>
+      <c r="R3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C4">
+        <v>2022</v>
+      </c>
+      <c r="D4" t="s">
+        <v>33</v>
+      </c>
+      <c r="E4" t="s">
+        <v>34</v>
+      </c>
+      <c r="G4" t="s">
+        <v>35</v>
+      </c>
+      <c r="H4" t="s">
+        <v>36</v>
+      </c>
+      <c r="I4" t="s">
+        <v>27</v>
+      </c>
+      <c r="J4" t="s">
+        <v>42</v>
+      </c>
+      <c r="L4" t="s">
+        <v>43</v>
+      </c>
+      <c r="N4" t="s">
+        <v>44</v>
+      </c>
+      <c r="P4">
+        <v>1</v>
+      </c>
+      <c r="R4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C5">
+        <v>2022</v>
+      </c>
+      <c r="D5" t="s">
+        <v>33</v>
+      </c>
+      <c r="E5" t="s">
+        <v>34</v>
+      </c>
+      <c r="G5" t="s">
+        <v>35</v>
+      </c>
+      <c r="H5" t="s">
+        <v>36</v>
+      </c>
+      <c r="I5" t="s">
+        <v>45</v>
+      </c>
+      <c r="J5" t="s">
+        <v>46</v>
+      </c>
+      <c r="P5">
+        <v>2</v>
+      </c>
+      <c r="R5" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>32</v>
+      </c>
+      <c r="C6">
+        <v>2022</v>
+      </c>
+      <c r="D6" t="s">
+        <v>48</v>
+      </c>
+      <c r="E6" t="s">
+        <v>49</v>
+      </c>
+      <c r="G6" t="s">
+        <v>50</v>
+      </c>
+      <c r="H6" t="s">
+        <v>51</v>
+      </c>
+      <c r="I6" t="s">
+        <v>52</v>
+      </c>
+      <c r="J6" t="s">
+        <v>53</v>
+      </c>
+      <c r="P6">
+        <v>4</v>
+      </c>
+      <c r="R6" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>54</v>
+      </c>
+      <c r="C7">
+        <v>2022</v>
+      </c>
+      <c r="D7" t="s">
+        <v>48</v>
+      </c>
+      <c r="E7" t="s">
+        <v>49</v>
+      </c>
+      <c r="G7" t="s">
+        <v>50</v>
+      </c>
+      <c r="H7" t="s">
+        <v>51</v>
+      </c>
+      <c r="I7" t="s">
+        <v>55</v>
+      </c>
+      <c r="J7" t="s">
+        <v>56</v>
+      </c>
+      <c r="P7">
+        <v>1</v>
+      </c>
+      <c r="R7" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>57</v>
+      </c>
+      <c r="C8">
+        <v>2022</v>
+      </c>
+      <c r="D8" t="s">
+        <v>48</v>
+      </c>
+      <c r="E8" t="s">
+        <v>49</v>
+      </c>
+      <c r="G8" t="s">
+        <v>50</v>
+      </c>
+      <c r="H8" t="s">
+        <v>51</v>
+      </c>
+      <c r="I8" t="s">
+        <v>58</v>
+      </c>
+      <c r="J8" t="s">
+        <v>59</v>
+      </c>
+      <c r="M8" t="s">
+        <v>60</v>
+      </c>
+      <c r="N8" t="s">
+        <v>61</v>
+      </c>
+      <c r="P8">
+        <v>2</v>
+      </c>
+      <c r="R8" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>57</v>
+      </c>
+      <c r="C9">
+        <v>2022</v>
+      </c>
+      <c r="D9" t="s">
+        <v>33</v>
+      </c>
+      <c r="E9" t="s">
+        <v>34</v>
+      </c>
+      <c r="G9" t="s">
+        <v>35</v>
+      </c>
+      <c r="H9" t="s">
+        <v>36</v>
+      </c>
+      <c r="I9" t="s">
+        <v>62</v>
+      </c>
+      <c r="J9" t="s">
+        <v>63</v>
+      </c>
+      <c r="P9">
+        <v>1</v>
+      </c>
+      <c r="R9" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>57</v>
+      </c>
+      <c r="C10">
+        <v>2022</v>
+      </c>
+      <c r="D10" t="s">
+        <v>33</v>
+      </c>
+      <c r="E10" t="s">
+        <v>34</v>
+      </c>
+      <c r="G10" t="s">
+        <v>35</v>
+      </c>
+      <c r="H10" t="s">
+        <v>36</v>
+      </c>
+      <c r="I10" t="s">
+        <v>64</v>
+      </c>
+      <c r="J10" t="s">
+        <v>65</v>
+      </c>
+      <c r="M10" t="s">
+        <v>66</v>
+      </c>
+      <c r="N10" t="s">
+        <v>67</v>
+      </c>
+      <c r="P10">
+        <v>1</v>
+      </c>
+      <c r="R10" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>57</v>
+      </c>
+      <c r="C11">
+        <v>2022</v>
+      </c>
+      <c r="D11" t="s">
+        <v>23</v>
+      </c>
+      <c r="E11" t="s">
+        <v>24</v>
+      </c>
+      <c r="G11" t="s">
+        <v>25</v>
+      </c>
+      <c r="H11" t="s">
+        <v>26</v>
+      </c>
+      <c r="I11" t="s">
+        <v>68</v>
+      </c>
+      <c r="J11" t="s">
+        <v>69</v>
+      </c>
+      <c r="P11">
+        <v>1</v>
+      </c>
+      <c r="R11" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>57</v>
+      </c>
+      <c r="C12">
+        <v>2022</v>
+      </c>
+      <c r="D12" t="s">
+        <v>48</v>
+      </c>
+      <c r="E12" t="s">
+        <v>49</v>
+      </c>
+      <c r="G12" t="s">
+        <v>50</v>
+      </c>
+      <c r="H12" t="s">
+        <v>51</v>
+      </c>
+      <c r="I12" t="s">
+        <v>27</v>
+      </c>
+      <c r="J12" t="s">
+        <v>70</v>
+      </c>
+      <c r="L12" t="s">
+        <v>71</v>
+      </c>
+      <c r="N12" t="s">
+        <v>72</v>
+      </c>
+      <c r="P12">
+        <v>1</v>
+      </c>
+      <c r="R12" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>73</v>
+      </c>
+      <c r="C13">
+        <v>2022</v>
+      </c>
+      <c r="D13" t="s">
+        <v>33</v>
+      </c>
+      <c r="E13" t="s">
+        <v>34</v>
+      </c>
+      <c r="G13" t="s">
+        <v>35</v>
+      </c>
+      <c r="H13" t="s">
+        <v>36</v>
+      </c>
+      <c r="I13" t="s">
+        <v>27</v>
+      </c>
+      <c r="J13" t="s">
+        <v>74</v>
+      </c>
+      <c r="L13" t="s">
+        <v>75</v>
+      </c>
+      <c r="N13" t="s">
+        <v>76</v>
+      </c>
+      <c r="P13">
+        <v>1</v>
+      </c>
+      <c r="R13" t="s">
+        <v>31</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
